--- a/10-1c-slovarSKartinkami/verb-top10+.xlsx
+++ b/10-1c-slovarSKartinkami/verb-top10+.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neo\Desktop\2024\10-1c-slovarSKartinkami\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A4AD33-0EAF-462C-9F7A-68C466D45D6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC83524-908D-475F-B461-C61203E173B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="20400" windowHeight="10380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -693,7 +693,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +707,7 @@
     <col min="7" max="7" width="32" customWidth="1"/>
     <col min="8" max="8" width="93.5703125" customWidth="1"/>
     <col min="9" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="92.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.85546875" customWidth="1"/>
     <col min="12" max="12" width="26.5703125" customWidth="1"/>
     <col min="13" max="13" width="26.28515625" customWidth="1"/>
   </cols>
